--- a/Documentação/backlog-sprint2.xlsx
+++ b/Documentação/backlog-sprint2.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA899CFA-244A-4699-B6D5-153026B32790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive\Área de Trabalho\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93717D7B-21E2-4B42-861E-01B71CF82133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>Projeto Análise de Umidade e Temperatura em Sistemas Pneumáticos - Backlog Sprint 1</t>
   </si>
@@ -199,13 +204,19 @@
   </si>
   <si>
     <t xml:space="preserve">Instalar o MySQL na maquina Virtual </t>
+  </si>
+  <si>
+    <t>Treinamento de Fillipe para ajudar os outro membros com o CSS</t>
+  </si>
+  <si>
+    <t>Treinamento CSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -362,6 +373,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -371,54 +424,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,30 +769,30 @@
   </sheetPr>
   <dimension ref="B2:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="2:9">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
@@ -798,211 +808,211 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="2:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15" customHeight="1">
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>1</v>
       </c>
@@ -1014,368 +1024,439 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="36" customHeight="1">
-      <c r="B18" s="15" t="s">
+    <row r="18" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" spans="2:10" ht="36" customHeight="1">
-      <c r="B19" s="7" t="s">
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="2:10" ht="36" customHeight="1">
-      <c r="B20" s="7" t="s">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="23" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="2:10" ht="36" customHeight="1">
-      <c r="B21" s="7" t="s">
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="2:10" ht="36" customHeight="1">
-      <c r="B22" s="7" t="s">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="2:10" ht="36" customHeight="1">
-      <c r="B23" s="7" t="s">
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="23" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="2:10" ht="36" customHeight="1">
-      <c r="B24" s="7" t="s">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="2:10" ht="36" customHeight="1">
-      <c r="B25" s="7" t="s">
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="23" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="25"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="2:10" ht="36" customHeight="1">
-      <c r="B26" s="7" t="s">
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="23" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="2:10" ht="36" customHeight="1">
-      <c r="B27" s="7" t="s">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="23" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
       <c r="I27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="2:10" ht="36" customHeight="1">
-      <c r="B28" s="7" t="s">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="23" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="2:10" ht="36" customHeight="1">
-      <c r="B29" s="7" t="s">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="23" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="2:10" ht="36" customHeight="1">
-      <c r="B30" s="7" t="s">
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="23" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
       <c r="I30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="22"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="22"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="20"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="20"/>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="20"/>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="20"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="20"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="20"/>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="20"/>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="20"/>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20"/>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="20"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:H36"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:H43"/>
     <mergeCell ref="B17:C17"/>
@@ -1392,72 +1473,6 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:H39"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
